--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="H2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="I2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="J2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.643304666666666</v>
+        <v>10.20278466666667</v>
       </c>
       <c r="N2">
-        <v>22.929914</v>
+        <v>30.608354</v>
       </c>
       <c r="O2">
-        <v>0.0822412352141863</v>
+        <v>0.1130484251481675</v>
       </c>
       <c r="P2">
-        <v>0.08224123521418632</v>
+        <v>0.1130484251481675</v>
       </c>
       <c r="Q2">
-        <v>16.966049737826</v>
+        <v>30.86037298405133</v>
       </c>
       <c r="R2">
-        <v>152.694447640434</v>
+        <v>277.743356856462</v>
       </c>
       <c r="S2">
-        <v>0.01056407891181935</v>
+        <v>0.01804677788772282</v>
       </c>
       <c r="T2">
-        <v>0.01056407891181935</v>
+        <v>0.01804677788772282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="H3">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="I3">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="J3">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>170.787834</v>
       </c>
       <c r="O3">
-        <v>0.6125536461983855</v>
+        <v>0.6307851663035086</v>
       </c>
       <c r="P3">
-        <v>0.6125536461983856</v>
+        <v>0.6307851663035084</v>
       </c>
       <c r="Q3">
-        <v>126.367455467106</v>
+        <v>172.194044095878</v>
       </c>
       <c r="R3">
-        <v>1137.307099203954</v>
+        <v>1549.746396862902</v>
       </c>
       <c r="S3">
-        <v>0.07868394777035376</v>
+        <v>0.1006970223267568</v>
       </c>
       <c r="T3">
-        <v>0.07868394777035374</v>
+        <v>0.1006970223267568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="H4">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="I4">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="J4">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.93659166666667</v>
+        <v>17.26138866666667</v>
       </c>
       <c r="N4">
-        <v>50.809775</v>
+        <v>51.784166</v>
       </c>
       <c r="O4">
-        <v>0.1822361242591178</v>
+        <v>0.1912588443635774</v>
       </c>
       <c r="P4">
-        <v>0.1822361242591178</v>
+        <v>0.1912588443635773</v>
       </c>
       <c r="Q4">
-        <v>37.59460981047501</v>
+        <v>52.21053956145533</v>
       </c>
       <c r="R4">
-        <v>338.351488294275</v>
+        <v>469.8948560530981</v>
       </c>
       <c r="S4">
-        <v>0.02340865615945118</v>
+        <v>0.03053210054689539</v>
       </c>
       <c r="T4">
-        <v>0.02340865615945118</v>
+        <v>0.03053210054689539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="H5">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="I5">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="J5">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.42844566666667</v>
+        <v>5.858002</v>
       </c>
       <c r="N5">
-        <v>34.285337</v>
+        <v>17.574006</v>
       </c>
       <c r="O5">
-        <v>0.1229689943283104</v>
+        <v>0.06490756418474665</v>
       </c>
       <c r="P5">
-        <v>0.1229689943283104</v>
+        <v>0.06490756418474665</v>
       </c>
       <c r="Q5">
-        <v>25.368029414333</v>
+        <v>17.718704507402</v>
       </c>
       <c r="R5">
-        <v>228.312264728997</v>
+        <v>159.468340566618</v>
       </c>
       <c r="S5">
-        <v>0.01579565477595422</v>
+        <v>0.01036168697210925</v>
       </c>
       <c r="T5">
-        <v>0.01579565477595422</v>
+        <v>0.01036168697210925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>34.517578</v>
       </c>
       <c r="I6">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="J6">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.643304666666666</v>
+        <v>10.20278466666667</v>
       </c>
       <c r="N6">
-        <v>22.929914</v>
+        <v>30.608354</v>
       </c>
       <c r="O6">
-        <v>0.0822412352141863</v>
+        <v>0.1130484251481675</v>
       </c>
       <c r="P6">
-        <v>0.08224123521418632</v>
+        <v>0.1130484251481675</v>
       </c>
       <c r="Q6">
-        <v>87.94278833647688</v>
+        <v>117.3918051829569</v>
       </c>
       <c r="R6">
-        <v>791.485095028292</v>
+        <v>1056.526246646612</v>
       </c>
       <c r="S6">
-        <v>0.05475844819909226</v>
+        <v>0.06864932692390065</v>
       </c>
       <c r="T6">
-        <v>0.05475844819909226</v>
+        <v>0.06864932692390065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.517578</v>
       </c>
       <c r="I7">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="J7">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>170.787834</v>
       </c>
       <c r="O7">
-        <v>0.6125536461983855</v>
+        <v>0.6307851663035086</v>
       </c>
       <c r="P7">
-        <v>0.6125536461983856</v>
+        <v>0.6307851663035084</v>
       </c>
       <c r="Q7">
         <v>655.020264616228</v>
@@ -883,10 +883,10 @@
         <v>5895.182381546052</v>
       </c>
       <c r="S7">
-        <v>0.4078548555011662</v>
+        <v>0.3830480348891311</v>
       </c>
       <c r="T7">
-        <v>0.4078548555011662</v>
+        <v>0.3830480348891311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.517578</v>
       </c>
       <c r="I8">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="J8">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.93659166666667</v>
+        <v>17.26138866666667</v>
       </c>
       <c r="N8">
-        <v>50.809775</v>
+        <v>51.784166</v>
       </c>
       <c r="O8">
-        <v>0.1822361242591178</v>
+        <v>0.1912588443635774</v>
       </c>
       <c r="P8">
-        <v>0.1822361242591178</v>
+        <v>0.1912588443635773</v>
       </c>
       <c r="Q8">
-        <v>194.8700413027723</v>
+        <v>198.6071098966609</v>
       </c>
       <c r="R8">
-        <v>1753.83037172495</v>
+        <v>1787.463989069948</v>
       </c>
       <c r="S8">
-        <v>0.1213377613341696</v>
+        <v>0.116143068040037</v>
       </c>
       <c r="T8">
-        <v>0.1213377613341695</v>
+        <v>0.116143068040037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>34.517578</v>
       </c>
       <c r="I9">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="J9">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.42844566666667</v>
+        <v>5.858002</v>
       </c>
       <c r="N9">
-        <v>34.285337</v>
+        <v>17.574006</v>
       </c>
       <c r="O9">
-        <v>0.1229689943283104</v>
+        <v>0.06490756418474665</v>
       </c>
       <c r="P9">
-        <v>0.1229689943283104</v>
+        <v>0.06490756418474665</v>
       </c>
       <c r="Q9">
-        <v>131.4940882393095</v>
+        <v>67.40134698638533</v>
       </c>
       <c r="R9">
-        <v>1183.446794153786</v>
+        <v>606.612122877468</v>
       </c>
       <c r="S9">
-        <v>0.08187609644340232</v>
+        <v>0.03941550346864753</v>
       </c>
       <c r="T9">
-        <v>0.08187609644340232</v>
+        <v>0.03941550346864754</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="H10">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="I10">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="J10">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.643304666666666</v>
+        <v>10.20278466666667</v>
       </c>
       <c r="N10">
-        <v>22.929914</v>
+        <v>30.608354</v>
       </c>
       <c r="O10">
-        <v>0.0822412352141863</v>
+        <v>0.1130484251481675</v>
       </c>
       <c r="P10">
-        <v>0.08224123521418632</v>
+        <v>0.1130484251481675</v>
       </c>
       <c r="Q10">
-        <v>27.09013925238444</v>
+        <v>44.57142256856177</v>
       </c>
       <c r="R10">
-        <v>243.81125327146</v>
+        <v>401.142803117056</v>
       </c>
       <c r="S10">
-        <v>0.01686794352348957</v>
+        <v>0.02606483608122202</v>
       </c>
       <c r="T10">
-        <v>0.01686794352348957</v>
+        <v>0.02606483608122202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="H11">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="I11">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="J11">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>170.787834</v>
       </c>
       <c r="O11">
-        <v>0.6125536461983855</v>
+        <v>0.6307851663035086</v>
       </c>
       <c r="P11">
-        <v>0.6125536461983856</v>
+        <v>0.6307851663035084</v>
       </c>
       <c r="Q11">
-        <v>201.77425025114</v>
+        <v>248.698663076864</v>
       </c>
       <c r="R11">
-        <v>1815.96825226026</v>
+        <v>2238.287967691776</v>
       </c>
       <c r="S11">
-        <v>0.1256367354195533</v>
+        <v>0.1454360106354284</v>
       </c>
       <c r="T11">
-        <v>0.1256367354195533</v>
+        <v>0.1454360106354284</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="H12">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="I12">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="J12">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.93659166666667</v>
+        <v>17.26138866666667</v>
       </c>
       <c r="N12">
-        <v>50.809775</v>
+        <v>51.784166</v>
       </c>
       <c r="O12">
-        <v>0.1822361242591178</v>
+        <v>0.1912588443635774</v>
       </c>
       <c r="P12">
-        <v>0.1822361242591178</v>
+        <v>0.1912588443635773</v>
       </c>
       <c r="Q12">
-        <v>60.02830538886111</v>
+        <v>75.40732001291377</v>
       </c>
       <c r="R12">
-        <v>540.25474849975</v>
+        <v>678.6658801162239</v>
       </c>
       <c r="S12">
-        <v>0.03737721890894193</v>
+        <v>0.04409730096537665</v>
       </c>
       <c r="T12">
-        <v>0.03737721890894193</v>
+        <v>0.04409730096537665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="H13">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="I13">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="J13">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.42844566666667</v>
+        <v>5.858002</v>
       </c>
       <c r="N13">
-        <v>34.285337</v>
+        <v>17.574006</v>
       </c>
       <c r="O13">
-        <v>0.1229689943283104</v>
+        <v>0.06490756418474665</v>
       </c>
       <c r="P13">
-        <v>0.1229689943283104</v>
+        <v>0.06490756418474665</v>
       </c>
       <c r="Q13">
-        <v>40.50580188154778</v>
+        <v>25.59100197444267</v>
       </c>
       <c r="R13">
-        <v>364.55221693393</v>
+        <v>230.319017769984</v>
       </c>
       <c r="S13">
-        <v>0.025221338736805</v>
+        <v>0.01496531259669867</v>
       </c>
       <c r="T13">
-        <v>0.025221338736805</v>
+        <v>0.01496531259669867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="H14">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="I14">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="J14">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.643304666666666</v>
+        <v>10.20278466666667</v>
       </c>
       <c r="N14">
-        <v>22.929914</v>
+        <v>30.608354</v>
       </c>
       <c r="O14">
-        <v>0.0822412352141863</v>
+        <v>0.1130484251481675</v>
       </c>
       <c r="P14">
-        <v>0.08224123521418632</v>
+        <v>0.1130484251481675</v>
       </c>
       <c r="Q14">
-        <v>0.08152858311111111</v>
+        <v>0.4916041745222222</v>
       </c>
       <c r="R14">
-        <v>0.733757248</v>
+        <v>4.4244375707</v>
       </c>
       <c r="S14">
-        <v>5.076457978514459E-05</v>
+        <v>0.0002874842553220228</v>
       </c>
       <c r="T14">
-        <v>5.076457978514461E-05</v>
+        <v>0.0002874842553220228</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="H15">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="I15">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="J15">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>170.787834</v>
       </c>
       <c r="O15">
-        <v>0.6125536461983855</v>
+        <v>0.6307851663035086</v>
       </c>
       <c r="P15">
-        <v>0.6125536461983856</v>
+        <v>0.6307851663035084</v>
       </c>
       <c r="Q15">
-        <v>0.607245632</v>
+        <v>2.7430423783</v>
       </c>
       <c r="R15">
-        <v>5.465210688</v>
+        <v>24.6873814047</v>
       </c>
       <c r="S15">
-        <v>0.0003781075073122835</v>
+        <v>0.001604098452192211</v>
       </c>
       <c r="T15">
-        <v>0.0003781075073122836</v>
+        <v>0.001604098452192211</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="H16">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="I16">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="J16">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.93659166666667</v>
+        <v>17.26138866666667</v>
       </c>
       <c r="N16">
-        <v>50.809775</v>
+        <v>51.784166</v>
       </c>
       <c r="O16">
-        <v>0.1822361242591178</v>
+        <v>0.1912588443635774</v>
       </c>
       <c r="P16">
-        <v>0.1822361242591178</v>
+        <v>0.1912588443635773</v>
       </c>
       <c r="Q16">
-        <v>0.1806569777777778</v>
+        <v>0.8317112439222222</v>
       </c>
       <c r="R16">
-        <v>1.6259128</v>
+        <v>7.485401195300001</v>
       </c>
       <c r="S16">
-        <v>0.0001124878565550985</v>
+        <v>0.0004863748112682574</v>
       </c>
       <c r="T16">
-        <v>0.0001124878565550985</v>
+        <v>0.0004863748112682574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="H17">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="I17">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="J17">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.42844566666667</v>
+        <v>5.858002</v>
       </c>
       <c r="N17">
-        <v>34.285337</v>
+        <v>17.574006</v>
       </c>
       <c r="O17">
-        <v>0.1229689943283104</v>
+        <v>0.06490756418474665</v>
       </c>
       <c r="P17">
-        <v>0.1229689943283104</v>
+        <v>0.06490756418474665</v>
       </c>
       <c r="Q17">
-        <v>0.1219034204444444</v>
+        <v>0.2822580630333333</v>
       </c>
       <c r="R17">
-        <v>1.097130784</v>
+        <v>2.540322567300001</v>
       </c>
       <c r="S17">
-        <v>7.590437214884758E-05</v>
+        <v>0.000165061147291186</v>
       </c>
       <c r="T17">
-        <v>7.590437214884758E-05</v>
+        <v>0.000165061147291186</v>
       </c>
     </row>
   </sheetData>
